--- a/excel_files/econ.xlsx
+++ b/excel_files/econ.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="413" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="472" uniqueCount="126">
   <si>
     <t>01-220-102</t>
   </si>
@@ -386,9 +386,6 @@
     <t>department</t>
   </si>
   <si>
-    <t>requirement</t>
-  </si>
-  <si>
     <t>upper</t>
   </si>
   <si>
@@ -402,6 +399,12 @@
   </si>
   <si>
     <t>major</t>
+  </si>
+  <si>
+    <t>major_requirement</t>
+  </si>
+  <si>
+    <t>minor_requirement</t>
   </si>
 </sst>
 </file>
@@ -735,10 +738,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G1000"/>
+  <dimension ref="A1:H1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A39" workbookViewId="0">
-      <selection activeCell="I55" sqref="I55"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -746,11 +749,13 @@
     <col min="1" max="1" width="17.1640625" customWidth="1"/>
     <col min="2" max="2" width="37.1640625" customWidth="1"/>
     <col min="3" max="3" width="19.1640625" customWidth="1"/>
-    <col min="5" max="5" width="18.83203125" customWidth="1"/>
-    <col min="6" max="6" width="19.5" customWidth="1"/>
+    <col min="4" max="4" width="15" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15" customWidth="1"/>
+    <col min="6" max="6" width="18.83203125" customWidth="1"/>
+    <col min="7" max="7" width="19.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>116</v>
       </c>
@@ -761,19 +766,22 @@
         <v>118</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H1" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -787,16 +795,19 @@
         <v>3</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>122</v>
+        <v>3</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>121</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -810,16 +821,19 @@
         <v>3</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>122</v>
+        <v>3</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>121</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
@@ -830,19 +844,22 @@
         <v>2</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>3</v>
+        <v>121</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>3</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
@@ -850,22 +867,25 @@
         <v>9</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>3</v>
+        <v>121</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>3</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
         <v>10</v>
       </c>
@@ -876,19 +896,22 @@
         <v>2</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>3</v>
+        <v>121</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>3</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
         <v>12</v>
       </c>
@@ -899,19 +922,22 @@
         <v>2</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>3</v>
+        <v>121</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>3</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
         <v>14</v>
       </c>
@@ -922,19 +948,22 @@
         <v>2</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>3</v>
+        <v>121</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>3</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
         <v>16</v>
       </c>
@@ -945,19 +974,22 @@
         <v>2</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>3</v>
+        <v>121</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>3</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
         <v>16</v>
       </c>
@@ -968,19 +1000,22 @@
         <v>2</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>3</v>
+        <v>121</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>3</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
         <v>19</v>
       </c>
@@ -991,19 +1026,22 @@
         <v>2</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>3</v>
+        <v>121</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>3</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="1" t="s">
         <v>21</v>
       </c>
@@ -1014,19 +1052,22 @@
         <v>2</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>3</v>
+        <v>121</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>3</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="1" t="s">
         <v>23</v>
       </c>
@@ -1037,19 +1078,22 @@
         <v>2</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>3</v>
+        <v>121</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>3</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="1" t="s">
         <v>25</v>
       </c>
@@ -1060,19 +1104,22 @@
         <v>2</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>3</v>
+        <v>121</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>3</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="1" t="s">
         <v>27</v>
       </c>
@@ -1083,19 +1130,22 @@
         <v>2</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>3</v>
+        <v>121</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>3</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="1" t="s">
         <v>29</v>
       </c>
@@ -1106,19 +1156,22 @@
         <v>2</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>3</v>
+        <v>121</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>3</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="1" t="s">
         <v>30</v>
       </c>
@@ -1132,16 +1185,19 @@
         <v>3</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>121</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="1" t="s">
         <v>32</v>
       </c>
@@ -1155,16 +1211,19 @@
         <v>3</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>121</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="1" t="s">
         <v>34</v>
       </c>
@@ -1178,16 +1237,19 @@
         <v>3</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>121</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="1" t="s">
         <v>36</v>
       </c>
@@ -1198,19 +1260,22 @@
         <v>2</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>3</v>
+        <v>121</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>122</v>
+        <v>3</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>121</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="1" t="s">
         <v>38</v>
       </c>
@@ -1221,19 +1286,22 @@
         <v>2</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>3</v>
+        <v>121</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>122</v>
+        <v>3</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>121</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="1" t="s">
         <v>40</v>
       </c>
@@ -1244,19 +1312,22 @@
         <v>2</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>3</v>
+        <v>121</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>122</v>
+        <v>3</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>121</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="1" t="s">
         <v>42</v>
       </c>
@@ -1267,19 +1338,22 @@
         <v>2</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>3</v>
+        <v>121</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>122</v>
+        <v>3</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>121</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="1" t="s">
         <v>44</v>
       </c>
@@ -1290,19 +1364,22 @@
         <v>2</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>3</v>
+        <v>121</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>122</v>
+        <v>3</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>121</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="1" t="s">
         <v>46</v>
       </c>
@@ -1313,19 +1390,22 @@
         <v>2</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>3</v>
+        <v>121</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>122</v>
+        <v>3</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>121</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="1" t="s">
         <v>48</v>
       </c>
@@ -1336,19 +1416,22 @@
         <v>2</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>3</v>
+        <v>121</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>122</v>
+        <v>3</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>121</v>
+      </c>
+      <c r="H26" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="1" t="s">
         <v>50</v>
       </c>
@@ -1359,19 +1442,22 @@
         <v>2</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>3</v>
+        <v>121</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>122</v>
+        <v>3</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>121</v>
+      </c>
+      <c r="H27" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="1" t="s">
         <v>52</v>
       </c>
@@ -1382,19 +1468,22 @@
         <v>2</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>3</v>
+        <v>121</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>122</v>
+        <v>3</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>121</v>
+      </c>
+      <c r="H28" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="1" t="s">
         <v>54</v>
       </c>
@@ -1405,19 +1494,22 @@
         <v>2</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>3</v>
+        <v>121</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>122</v>
+        <v>3</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>121</v>
+      </c>
+      <c r="H29" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="1" t="s">
         <v>56</v>
       </c>
@@ -1428,19 +1520,22 @@
         <v>2</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>3</v>
+        <v>121</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>122</v>
+        <v>3</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>121</v>
+      </c>
+      <c r="H30" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="1" t="s">
         <v>58</v>
       </c>
@@ -1451,19 +1546,22 @@
         <v>2</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>3</v>
+        <v>121</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>122</v>
+        <v>3</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>121</v>
+      </c>
+      <c r="H31" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="1" t="s">
         <v>60</v>
       </c>
@@ -1474,19 +1572,22 @@
         <v>2</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>3</v>
+        <v>121</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>122</v>
+        <v>3</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>121</v>
+      </c>
+      <c r="H32" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="1" t="s">
         <v>62</v>
       </c>
@@ -1497,19 +1598,22 @@
         <v>2</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>3</v>
+        <v>121</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>122</v>
+        <v>3</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>121</v>
+      </c>
+      <c r="H33" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="1" t="s">
         <v>64</v>
       </c>
@@ -1520,19 +1624,22 @@
         <v>2</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>3</v>
+        <v>121</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>122</v>
+        <v>3</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>121</v>
+      </c>
+      <c r="H34" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="1" t="s">
         <v>66</v>
       </c>
@@ -1543,19 +1650,22 @@
         <v>2</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>3</v>
+        <v>121</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>122</v>
+        <v>3</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>121</v>
+      </c>
+      <c r="H35" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="1" t="s">
         <v>68</v>
       </c>
@@ -1566,19 +1676,22 @@
         <v>2</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>3</v>
+        <v>121</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>122</v>
+        <v>3</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>121</v>
+      </c>
+      <c r="H36" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="1" t="s">
         <v>70</v>
       </c>
@@ -1589,19 +1702,22 @@
         <v>2</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>3</v>
+        <v>121</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>122</v>
+        <v>3</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>121</v>
+      </c>
+      <c r="H37" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="1" t="s">
         <v>72</v>
       </c>
@@ -1612,19 +1728,22 @@
         <v>2</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>3</v>
+        <v>121</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>122</v>
+        <v>3</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>121</v>
+      </c>
+      <c r="H38" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="1" t="s">
         <v>74</v>
       </c>
@@ -1635,19 +1754,22 @@
         <v>2</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>3</v>
+        <v>121</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>122</v>
+        <v>3</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>121</v>
+      </c>
+      <c r="H39" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="1" t="s">
         <v>76</v>
       </c>
@@ -1658,19 +1780,22 @@
         <v>2</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>3</v>
+        <v>121</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>122</v>
+        <v>3</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" ht="13" x14ac:dyDescent="0.15">
+        <v>121</v>
+      </c>
+      <c r="H40" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" ht="13" x14ac:dyDescent="0.15">
       <c r="A41" s="1" t="s">
         <v>78</v>
       </c>
@@ -1681,19 +1806,22 @@
         <v>2</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>3</v>
+        <v>121</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>122</v>
+        <v>3</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" ht="13" x14ac:dyDescent="0.15">
+        <v>121</v>
+      </c>
+      <c r="H41" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" ht="13" x14ac:dyDescent="0.15">
       <c r="A42" s="1" t="s">
         <v>80</v>
       </c>
@@ -1704,19 +1832,22 @@
         <v>2</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>3</v>
+        <v>121</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>122</v>
+        <v>3</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" ht="13" x14ac:dyDescent="0.15">
+        <v>121</v>
+      </c>
+      <c r="H42" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" ht="13" x14ac:dyDescent="0.15">
       <c r="A43" s="1" t="s">
         <v>82</v>
       </c>
@@ -1727,19 +1858,22 @@
         <v>2</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>3</v>
+        <v>121</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>122</v>
+        <v>3</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" ht="13" x14ac:dyDescent="0.15">
+        <v>121</v>
+      </c>
+      <c r="H43" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" ht="13" x14ac:dyDescent="0.15">
       <c r="A44" s="1" t="s">
         <v>84</v>
       </c>
@@ -1750,19 +1884,22 @@
         <v>2</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>3</v>
+        <v>121</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>122</v>
+        <v>3</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" ht="13" x14ac:dyDescent="0.15">
+        <v>121</v>
+      </c>
+      <c r="H44" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" ht="13" x14ac:dyDescent="0.15">
       <c r="A45" s="1" t="s">
         <v>86</v>
       </c>
@@ -1773,19 +1910,22 @@
         <v>2</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>3</v>
+        <v>121</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>122</v>
+        <v>3</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" ht="13" x14ac:dyDescent="0.15">
+        <v>121</v>
+      </c>
+      <c r="H45" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" ht="13" x14ac:dyDescent="0.15">
       <c r="A46" s="1" t="s">
         <v>88</v>
       </c>
@@ -1796,19 +1936,22 @@
         <v>2</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>3</v>
+        <v>121</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>122</v>
+        <v>3</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" ht="13" x14ac:dyDescent="0.15">
+        <v>121</v>
+      </c>
+      <c r="H46" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" ht="13" x14ac:dyDescent="0.15">
       <c r="A47" s="1" t="s">
         <v>90</v>
       </c>
@@ -1819,19 +1962,22 @@
         <v>2</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>3</v>
+        <v>121</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>122</v>
+        <v>3</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" ht="13" x14ac:dyDescent="0.15">
+        <v>121</v>
+      </c>
+      <c r="H47" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" ht="13" x14ac:dyDescent="0.15">
       <c r="A48" s="1" t="s">
         <v>92</v>
       </c>
@@ -1842,19 +1988,22 @@
         <v>2</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>3</v>
+        <v>121</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>122</v>
+        <v>3</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" ht="13" x14ac:dyDescent="0.15">
+        <v>121</v>
+      </c>
+      <c r="H48" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" ht="13" x14ac:dyDescent="0.15">
       <c r="A49" s="1" t="s">
         <v>93</v>
       </c>
@@ -1865,19 +2014,22 @@
         <v>2</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>3</v>
+        <v>121</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>122</v>
+        <v>3</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" ht="13" x14ac:dyDescent="0.15">
+        <v>121</v>
+      </c>
+      <c r="H49" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" ht="13" x14ac:dyDescent="0.15">
       <c r="A50" s="1" t="s">
         <v>95</v>
       </c>
@@ -1888,19 +2040,22 @@
         <v>2</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>3</v>
+        <v>121</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>122</v>
+        <v>3</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" ht="13" x14ac:dyDescent="0.15">
+        <v>121</v>
+      </c>
+      <c r="H50" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" ht="13" x14ac:dyDescent="0.15">
       <c r="A51" s="1" t="s">
         <v>97</v>
       </c>
@@ -1911,19 +2066,22 @@
         <v>2</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>3</v>
+        <v>121</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>122</v>
+        <v>3</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" ht="13" x14ac:dyDescent="0.15">
+        <v>121</v>
+      </c>
+      <c r="H51" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" ht="13" x14ac:dyDescent="0.15">
       <c r="A52" s="1" t="s">
         <v>99</v>
       </c>
@@ -1934,19 +2092,22 @@
         <v>2</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>3</v>
+        <v>121</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>122</v>
+        <v>3</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7" ht="13" x14ac:dyDescent="0.15">
+        <v>121</v>
+      </c>
+      <c r="H52" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" ht="13" x14ac:dyDescent="0.15">
       <c r="A53" s="1" t="s">
         <v>100</v>
       </c>
@@ -1957,19 +2118,22 @@
         <v>2</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>3</v>
+        <v>121</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>122</v>
+        <v>3</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7" ht="13" x14ac:dyDescent="0.15">
+        <v>121</v>
+      </c>
+      <c r="H53" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" ht="13" x14ac:dyDescent="0.15">
       <c r="A54" s="1" t="s">
         <v>102</v>
       </c>
@@ -1980,19 +2144,22 @@
         <v>2</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>3</v>
+        <v>121</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>122</v>
+        <v>3</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7" ht="13" x14ac:dyDescent="0.15">
+        <v>121</v>
+      </c>
+      <c r="H54" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" ht="13" x14ac:dyDescent="0.15">
       <c r="A55" s="1" t="s">
         <v>104</v>
       </c>
@@ -2003,19 +2170,22 @@
         <v>2</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>3</v>
+        <v>121</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>122</v>
+        <v>3</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7" ht="13" x14ac:dyDescent="0.15">
+        <v>121</v>
+      </c>
+      <c r="H55" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" ht="13" x14ac:dyDescent="0.15">
       <c r="A56" s="1" t="s">
         <v>106</v>
       </c>
@@ -2026,19 +2196,22 @@
         <v>2</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="G56" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7" ht="13" x14ac:dyDescent="0.15">
+        <v>121</v>
+      </c>
+      <c r="H56" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" ht="13" x14ac:dyDescent="0.15">
       <c r="A57" s="1" t="s">
         <v>108</v>
       </c>
@@ -2049,19 +2222,22 @@
         <v>2</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7" ht="13" x14ac:dyDescent="0.15">
+        <v>121</v>
+      </c>
+      <c r="H57" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" ht="13" x14ac:dyDescent="0.15">
       <c r="A58" s="1" t="s">
         <v>110</v>
       </c>
@@ -2075,16 +2251,19 @@
         <v>3</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7" ht="13" x14ac:dyDescent="0.15">
+        <v>121</v>
+      </c>
+      <c r="H58" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" ht="13" x14ac:dyDescent="0.15">
       <c r="A59" s="1" t="s">
         <v>113</v>
       </c>
@@ -2098,20 +2277,23 @@
         <v>3</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="G59" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="61" spans="1:7" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="62" spans="1:7" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="63" spans="1:7" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="64" spans="1:7" ht="13" x14ac:dyDescent="0.15"/>
+        <v>121</v>
+      </c>
+      <c r="H59" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="61" spans="1:8" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="62" spans="1:8" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="63" spans="1:8" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="64" spans="1:8" ht="13" x14ac:dyDescent="0.15"/>
     <row r="65" ht="13" x14ac:dyDescent="0.15"/>
     <row r="66" ht="13" x14ac:dyDescent="0.15"/>
     <row r="67" ht="13" x14ac:dyDescent="0.15"/>
